--- a/lab1/лаб1.xlsx
+++ b/lab1/лаб1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beebo\Desktop\бд\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beebo\Desktop\бд\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="27" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="28" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="задача1.1" sheetId="3" r:id="rId1"/>
@@ -46,8 +46,9 @@
     <sheet name="задача11.1" sheetId="39" r:id="rId32"/>
     <sheet name="задача12.1" sheetId="57" r:id="rId33"/>
     <sheet name="задача12.2" sheetId="58" r:id="rId34"/>
-    <sheet name="задача12" sheetId="40" r:id="rId35"/>
-    <sheet name="задача11" sheetId="37" r:id="rId36"/>
+    <sheet name="Лист4" sheetId="64" r:id="rId35"/>
+    <sheet name="задача12" sheetId="40" r:id="rId36"/>
+    <sheet name="задача11" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="72">
   <si>
     <t>Номер випробування</t>
   </si>
@@ -621,15 +622,30 @@
   <si>
     <t>Урожайність за повтореннями ц. з га</t>
   </si>
+  <si>
+    <t>Двухфакторный дисперсионный анализ с повторениями</t>
+  </si>
+  <si>
+    <t>Выборка</t>
+  </si>
+  <si>
+    <t>Столбцы</t>
+  </si>
+  <si>
+    <t>Взаимодействие</t>
+  </si>
+  <si>
+    <t>Внутри</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +714,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -725,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -916,11 +941,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,6 +988,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,23 +1037,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3009,16 +3046,16 @@
       <c r="G19" s="12">
         <v>2.2106969833035763</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -3087,18 +3124,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3901,16 +3938,16 @@
       <c r="G13" s="12">
         <v>3.8625483576247648</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -3982,12 +4019,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4356,16 +4393,16 @@
       <c r="G14" s="12">
         <v>2.5026564633999411</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -4433,13 +4470,13 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4971,16 +5008,16 @@
       <c r="G14" s="14">
         <v>3.055568275906595</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -5714,16 +5751,16 @@
       <c r="G14" s="13">
         <v>3.055568275906595</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -5793,13 +5830,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -6463,11 +6500,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -6785,7 +6822,7 @@
       <c r="E12" s="12">
         <v>69.394336315838061</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="18">
         <v>3.3939553466146067E-6</v>
       </c>
       <c r="G12" s="14">
@@ -7384,11 +7421,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -7445,15 +7482,15 @@
       <c r="D5" s="3">
         <v>51.4</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -7468,7 +7505,7 @@
       <c r="D6" s="3">
         <v>53.6</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1">
         <v>1</v>
       </c>
@@ -7481,7 +7518,7 @@
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="19">
         <f>_xlfn.VAR.S(I7:L7)/_xlfn.VAR.S(I7:L9)</f>
         <v>0.130399450248006</v>
       </c>
@@ -7502,61 +7539,61 @@
         <f t="shared" si="0"/>
         <v>52.574999999999996</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="15">
         <v>42.4</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="15">
         <v>37.4</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="15">
         <v>40.700000000000003</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="19">
         <f>_xlfn.VAR.S(I8:L8)/_xlfn.VAR.S(I7:L9)</f>
         <v>7.0750609951334628E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H8" s="27">
+      <c r="H8" s="16">
         <v>2</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="16">
         <v>52.5</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="16">
         <v>50.1</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="16">
         <v>53.8</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="16">
         <v>50.7</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="19">
         <f>_xlfn.VAR.S(I9:L9)/_xlfn.VAR.S(I7:L9)</f>
         <v>2.2141748383605577E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H9" s="28">
+      <c r="H9" s="17">
         <v>3</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="17">
         <v>52.3</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="17">
         <v>53</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="17">
         <v>51.4</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="17">
         <v>53.6</v>
       </c>
     </row>
@@ -8104,13 +8141,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -8255,11 +8292,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -8888,7 +8925,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9530,7 +9567,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9784,6 +9821,553 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5.3809523809523814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.6190476190476204</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.2857142857142871</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.4761904761904772</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.95238095238095377</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.8095238095238055</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.80952380952380965</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.4367015098722424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42</v>
+      </c>
+      <c r="G12" s="6">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5.4523809523809526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4.2380952380952408</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.5714285714285743</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.5714285714285743</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4.8391405342624862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6">
+        <v>81</v>
+      </c>
+      <c r="D18" s="6">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6.3571428571428568</v>
+      </c>
+      <c r="C19" s="6">
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="E19">
+        <v>6.0714285714285712</v>
+      </c>
+      <c r="F19">
+        <v>6.0714285714285712</v>
+      </c>
+      <c r="G19">
+        <v>1.9285714285714286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3.1703296703296666</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.7197802197802179</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.9120879120879146</v>
+      </c>
+      <c r="E20">
+        <v>2.0714285714285725</v>
+      </c>
+      <c r="F20">
+        <v>1.763736263736265</v>
+      </c>
+      <c r="G20">
+        <v>0.68681318681318693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.10714285714277594</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.10714285714277594</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.9450549450511971E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.82465172753739369</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3.9738969916082736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6">
+        <v>207.20238095238085</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>41.440476190476168</v>
+      </c>
+      <c r="E26" s="6">
+        <v>19.126373626373617</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4.6527994055637987E-12</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2.341827530544291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
+        <v>17.107142857142946</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.4214285714285895</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.5791208791208875</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.17688974623672596</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.341827530544291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="6">
+        <v>156</v>
+      </c>
+      <c r="C28" s="6">
+        <v>72</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="7">
+        <v>380.41666666666657</v>
+      </c>
+      <c r="C30" s="7">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -9801,15 +10385,15 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -10268,12 +10852,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10282,11 +10866,11 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -10566,16 +11150,16 @@
       <c r="G13" s="12">
         <v>3.4902948194976045</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -11184,16 +11768,16 @@
       <c r="G12" s="14">
         <v>4.1028210151304032</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -11586,11 +12170,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -11723,12 +12307,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
